--- a/data/raw/PLANO_CONTA.xlsx
+++ b/data/raw/PLANO_CONTA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_CODE (DEVS)\CESAR_SCHOOL\PLURII_ECEEL\plurii-eceel\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F872D1-2ED0-47D0-A93C-394CB89017EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1368B954-1F4E-4BD4-9CFC-899D8B16A741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{311BE9E3-F0E8-4147-ABD2-45DEE0E0DCD1}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planilha6!$A$1:$E$101</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Planilha6 (2)'!$A$1:$E$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Planilha6 (2)'!$A$1:$E$120</definedName>
     <definedName name="Forecast">[1]Validacoes!$L$2:$L$4</definedName>
     <definedName name="Meses">[1]Validacoes!$N$2:$N$13</definedName>
     <definedName name="Planodecontas">#REF!</definedName>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="448">
   <si>
     <t>1.01</t>
   </si>
@@ -1348,6 +1348,51 @@
   </si>
   <si>
     <t>Pgto fatura Cartão Credito</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>Midea</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>Elgin</t>
+  </si>
+  <si>
+    <t>Fresnomaq</t>
+  </si>
+  <si>
+    <t>D68</t>
+  </si>
+  <si>
+    <t>D69</t>
+  </si>
+  <si>
+    <t>D71</t>
+  </si>
+  <si>
+    <t>D72</t>
+  </si>
+  <si>
+    <t>D73</t>
+  </si>
+  <si>
+    <t>CIEE (Estagiario)</t>
+  </si>
+  <si>
+    <t>D74</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1683,117 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5401,13 +5556,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B17280-E620-4408-A384-75F2566B0C92}">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C94" sqref="C94:D94"/>
+      <selection pane="bottomRight" activeCell="C75" sqref="C75:D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5444,7 +5599,7 @@
         <v>207</v>
       </c>
       <c r="B2" s="22" t="str">
-        <f t="shared" ref="B2:B33" si="0">A2&amp;"   "&amp; C2&amp;" - "&amp;D2</f>
+        <f t="shared" ref="B2:B38" si="0">A2&amp;"   "&amp; C2&amp;" - "&amp;D2</f>
         <v>R1   Receita de vendas - Vendas vista</v>
       </c>
       <c r="C2" s="20" t="s">
@@ -5630,1253 +5785,1253 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>216</v>
+        <v>420</v>
       </c>
       <c r="B11" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>R10   Receitas financeiras - Rendimentos CDI</v>
+        <v>R24   Receita com serviços - Panasonic</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>433</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>180</v>
       </c>
       <c r="G11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>217</v>
+        <v>435</v>
       </c>
       <c r="B12" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>R11   Receitas financeiras - Rendimento Poupança</v>
+        <f t="shared" ref="B12" si="1">A12&amp;"   "&amp; C12&amp;" - "&amp;D12</f>
+        <v>R25   Receita com serviços - Midea</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>434</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>180</v>
       </c>
       <c r="G12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>218</v>
+        <v>437</v>
       </c>
       <c r="B13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>R12   Receitas financeiras - Rendimento Ações</v>
+        <f t="shared" ref="B13" si="2">A13&amp;"   "&amp; C13&amp;" - "&amp;D13</f>
+        <v>R26   Receita com serviços - Spring</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>436</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>180</v>
       </c>
       <c r="G13" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>219</v>
+        <v>437</v>
       </c>
       <c r="B14" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>R13   Receitas financeiras - Juros</v>
+        <f t="shared" ref="B14" si="3">A14&amp;"   "&amp; C14&amp;" - "&amp;D14</f>
+        <v>R26   Receita com serviços - Fresnomaq</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>440</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>180</v>
       </c>
       <c r="G14" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>220</v>
+        <v>438</v>
       </c>
       <c r="B15" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>R14   Receitas financeiras - Multa</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>36</v>
+        <f t="shared" ref="B15" si="4">A15&amp;"   "&amp; C15&amp;" - "&amp;D15</f>
+        <v>R27   Receita com serviços - Elgin</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>439</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>180</v>
       </c>
       <c r="G15" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B16" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>R15   Receitas financeiras - Rendimento Fundos</v>
-      </c>
-      <c r="C16" s="28" t="s">
+        <v>R10   Receitas financeiras - Rendimentos CDI</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>40</v>
+      <c r="D16" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>180</v>
       </c>
       <c r="G16" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B17" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>R16   Receitas financeiras - Outras</v>
-      </c>
-      <c r="C17" s="28" t="s">
+        <v>R11   Receitas financeiras - Rendimento Poupança</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>181</v>
+      <c r="D17" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>180</v>
       </c>
       <c r="G17" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>420</v>
+        <v>218</v>
       </c>
       <c r="B18" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>R24   Receitas financeiras - Rendimento Aplicações</v>
-      </c>
-      <c r="C18" s="28" t="s">
+        <v>R12   Receitas financeiras - Rendimento Ações</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>421</v>
+      <c r="D18" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B19" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>R17   Outras entradas - Receita não identificada</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>15</v>
+        <v>R13   Receitas financeiras - Juros</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B20" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>R18   Outras entradas - Estorno de pagamento</v>
+        <v>R14   Receitas financeiras - Multa</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>180</v>
       </c>
       <c r="G20" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B21" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>R19   Outras entradas - Venda de maquina</v>
+        <v>R15   Receitas financeiras - Rendimento Fundos</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>180</v>
       </c>
       <c r="G21" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B22" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>R20   Outras entradas - Venda imóvel</v>
+        <v>R16   Receitas financeiras - Outras</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>181</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>180</v>
       </c>
       <c r="G22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>227</v>
+        <v>420</v>
       </c>
       <c r="B23" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>R21   Outras entradas - Aporte de capital</v>
+        <v>R24   Receitas financeiras - Rendimento Aplicações</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>37</v>
+        <v>421</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>180</v>
       </c>
       <c r="G23" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B24" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>R22   Outras entradas - Empréstimo contratado</v>
+        <v>R17   Outras entradas - Receita não identificada</v>
       </c>
       <c r="C24" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>180</v>
       </c>
       <c r="G24" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B25" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>R23   Outras entradas - Outras</v>
+        <v>R18   Outras entradas - Estorno de pagamento</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="25" t="s">
-        <v>181</v>
+      <c r="D25" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>180</v>
       </c>
       <c r="G25" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>R19   Outras entradas - Venda de maquina</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>R20   Outras entradas - Venda imóvel</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>R21   Outras entradas - Aporte de capital</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>R22   Outras entradas - Empréstimo contratado</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>R23   Outras entradas - Outras</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="B26" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>D1   Despesas administrativas - Aluguel imóvel</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="G26" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="B27" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>D2   Despesas administrativas - Material de escritório</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="G27" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="B28" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>D3   Despesas administrativas - Telefonia (Celular, Fixo, Internet)</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="G28" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="B29" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>D4   Despesas administrativas - Energia</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="G29" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="B30" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>D5   Despesas administrativas - Água</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="G30" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B31" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>D6   Despesas administrativas - Jurídico</v>
+        <v>D1   Despesas administrativas - Aluguel imóvel</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G31" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B32" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>D7   Despesas administrativas - Contabilidade</v>
+        <v>D2   Despesas administrativas - Material de escritório</v>
       </c>
       <c r="C32" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G32" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B33" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>D8   Despesas administrativas - Seguros</v>
+        <v>D3   Despesas administrativas - Telefonia (Celular, Fixo, Internet)</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G33" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B34" s="22" t="str">
-        <f t="shared" ref="B34:B65" si="1">A34&amp;"   "&amp; C34&amp;" - "&amp;D34</f>
-        <v>D9   Despesas administrativas - Correios</v>
+        <f t="shared" si="0"/>
+        <v>D4   Despesas administrativas - Energia</v>
       </c>
       <c r="C34" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>431</v>
+        <v>98</v>
       </c>
       <c r="E34" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G34" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B35" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D10   Despesas administrativas - Sistema de segurança</v>
+        <f t="shared" si="0"/>
+        <v>D5   Despesas administrativas - Água</v>
       </c>
       <c r="C35" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E35" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G35" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B36" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D11   Despesas administrativas - Site/Hospedagem</v>
+        <f t="shared" si="0"/>
+        <v>D6   Despesas administrativas - Jurídico</v>
       </c>
       <c r="C36" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="E36" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G36" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B37" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D12   Despesas administrativas - Combustivel</v>
+        <f t="shared" si="0"/>
+        <v>D7   Despesas administrativas - Contabilidade</v>
       </c>
       <c r="C37" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G37" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B38" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D13   Despesas administrativas - Manutenção veículo</v>
+        <f t="shared" si="0"/>
+        <v>D8   Despesas administrativas - Seguros</v>
       </c>
       <c r="C38" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="E38" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G38" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B39" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D14   Despesas administrativas - Peças/acessórios veiculos</v>
+        <f t="shared" ref="B39:B70" si="5">A39&amp;"   "&amp; C39&amp;" - "&amp;D39</f>
+        <v>D9   Despesas administrativas - Correios</v>
       </c>
       <c r="C39" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>192</v>
+        <v>431</v>
       </c>
       <c r="E39" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G39" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B40" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D15   Despesas administrativas - Veiculos</v>
+        <f t="shared" si="5"/>
+        <v>D10   Despesas administrativas - Sistema de segurança</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="E40" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G40" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B41" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D16   Despesas administrativas - Seguro veicular</v>
+        <f t="shared" si="5"/>
+        <v>D11   Despesas administrativas - Site/Hospedagem</v>
       </c>
       <c r="C41" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E41" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G41" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B42" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D17   Despesas administrativas - Manutenção predial</v>
+        <f t="shared" si="5"/>
+        <v>D12   Despesas administrativas - Combustivel</v>
       </c>
       <c r="C42" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E42" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G42" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B43" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D18   Despesas administrativas - Suprimentos Copa e cozinha</v>
+        <f t="shared" si="5"/>
+        <v>D13   Despesas administrativas - Manutenção veículo</v>
       </c>
       <c r="C43" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="E43" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G43" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B44" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D19   Despesas administrativas - Portador</v>
+        <f t="shared" si="5"/>
+        <v>D14   Despesas administrativas - Peças/acessórios veiculos</v>
       </c>
       <c r="C44" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="E44" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G44" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B45" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D20   Despesas administrativas - Cartório</v>
+        <f t="shared" si="5"/>
+        <v>D15   Despesas administrativas - Veiculos</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="E45" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G45" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B46" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D21   Despesas administrativas - Outras</v>
+        <f t="shared" si="5"/>
+        <v>D16   Despesas administrativas - Seguro veicular</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="E46" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G46" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
-        <v>422</v>
+        <v>246</v>
       </c>
       <c r="B47" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D65   Despesas administrativas - Multas veiculos</v>
+        <f t="shared" si="5"/>
+        <v>D17   Despesas administrativas - Manutenção predial</v>
       </c>
       <c r="C47" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>428</v>
+        <v>195</v>
       </c>
       <c r="E47" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G47" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B48" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D22   Despesas comerciais - Comissões</v>
+        <f t="shared" si="5"/>
+        <v>D18   Despesas administrativas - Suprimentos Copa e cozinha</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="E48" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G48" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B49" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D23   Despesas comerciais - Mídia Digital A</v>
+        <f t="shared" si="5"/>
+        <v>D19   Despesas administrativas - Portador</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="E49" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G49" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B50" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D24   Despesas comerciais - Mídia Digital B</v>
+        <f t="shared" si="5"/>
+        <v>D20   Despesas administrativas - Cartório</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G50" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B51" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D25   Despesas comerciais - Assessoria de mkt</v>
+        <f t="shared" si="5"/>
+        <v>D21   Despesas administrativas - Outras</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="E51" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G51" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
-        <v>255</v>
+        <v>422</v>
       </c>
       <c r="B52" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D26   Despesas financeiras - Despesas bancárias</v>
+        <f t="shared" si="5"/>
+        <v>D65   Despesas administrativas - Multas veiculos</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>65</v>
+        <v>428</v>
       </c>
       <c r="E52" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G52" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B53" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D27   Despesas financeiras - Despesas com cobrança</v>
+        <f t="shared" si="5"/>
+        <v>D22   Despesas comerciais - Comissões</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E53" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G53" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B54" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D28   Despesas financeiras - Juros de mora</v>
+        <f t="shared" si="5"/>
+        <v>D23   Despesas comerciais - Mídia Digital A</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E54" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G54" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B55" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D29   Despesas financeiras - Juros de capital</v>
+        <f t="shared" si="5"/>
+        <v>D24   Despesas comerciais - Mídia Digital B</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E55" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G55" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B56" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D30   Despesas financeiras - Emprestimo</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>418</v>
+        <f t="shared" si="5"/>
+        <v>D25   Despesas comerciais - Assessoria de mkt</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="E56" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G56" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B57" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D31   Despesas financeiras - Tarifa de Saque</v>
-      </c>
-      <c r="C57" s="24" t="s">
+        <f t="shared" si="5"/>
+        <v>D26   Despesas financeiras - Despesas bancárias</v>
+      </c>
+      <c r="C57" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="25" t="s">
-        <v>112</v>
+      <c r="D57" s="22" t="s">
+        <v>65</v>
       </c>
       <c r="E57" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G57" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B58" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D32   Despesas financeiras - IOF</v>
-      </c>
-      <c r="C58" s="24" t="s">
+        <f t="shared" si="5"/>
+        <v>D27   Despesas financeiras - Despesas com cobrança</v>
+      </c>
+      <c r="C58" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="25" t="s">
-        <v>196</v>
+      <c r="D58" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="E58" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G58" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B59" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D33   Despesas financeiras - Outras</v>
-      </c>
-      <c r="C59" s="24" t="s">
+        <f t="shared" si="5"/>
+        <v>D28   Despesas financeiras - Juros de mora</v>
+      </c>
+      <c r="C59" s="28" t="s">
         <v>53</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="E59" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G59" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
-        <v>424</v>
+        <v>258</v>
       </c>
       <c r="B60" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D67   Despesas financeiras - Aplicação</v>
-      </c>
-      <c r="C60" s="24" t="s">
+        <f t="shared" si="5"/>
+        <v>D29   Despesas financeiras - Juros de capital</v>
+      </c>
+      <c r="C60" s="28" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G60" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B61" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D34   Despesa com produtos - Matéria prima</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>55</v>
+        <f t="shared" si="5"/>
+        <v>D30   Despesas financeiras - Emprestimo</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>418</v>
       </c>
       <c r="E61" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G61" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B62" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D35   Despesa com produtos - Beneficiamento</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>67</v>
+        <f t="shared" si="5"/>
+        <v>D31   Despesas financeiras - Tarifa de Saque</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>112</v>
       </c>
       <c r="E62" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G62" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B63" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D36   Despesa com produtos - Materiais de Consumo</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>80</v>
+        <f t="shared" si="5"/>
+        <v>D32   Despesas financeiras - IOF</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>196</v>
       </c>
       <c r="E63" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G63" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B64" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D37   Despesa com produtos - Fretes e Pedagios</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>43</v>
+        <f t="shared" si="5"/>
+        <v>D33   Despesas financeiras - Outras</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>308</v>
+        <v>181</v>
       </c>
       <c r="E64" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G64" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="32" t="s">
-        <v>267</v>
+        <v>424</v>
       </c>
       <c r="B65" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>D38   Despesa com produtos - Outras</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>43</v>
+        <f t="shared" si="5"/>
+        <v>D67   Despesas financeiras - Aplicação</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="E65" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G65" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B66" s="22" t="str">
-        <f t="shared" ref="B66:B99" si="2">A66&amp;"   "&amp; C66&amp;" - "&amp;D66</f>
-        <v>D39   Despesa com serviços - Transporte</v>
+        <f t="shared" si="5"/>
+        <v>D34   Despesa com produtos - Matéria prima</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E66" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G66" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="32" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B67" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D40   Despesa com serviços - Hospedagem</v>
+        <f t="shared" si="5"/>
+        <v>D35   Despesa com produtos - Beneficiamento</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E67" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G67" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B68" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D41   Despesa com serviços - Peças</v>
+        <f t="shared" si="5"/>
+        <v>D36   Despesa com produtos - Materiais de Consumo</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="E68" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G68" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="32" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B69" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D42   Despesa com serviços - Mão de obra</v>
+        <f t="shared" si="5"/>
+        <v>D37   Despesa com produtos - Fretes e Pedagios</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="E69" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G69" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B70" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D43   Despesa com serviços - Outras</v>
+        <f t="shared" si="5"/>
+        <v>D38   Despesa com produtos - Outras</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D70" s="22" t="s">
         <v>181</v>
@@ -6885,861 +7040,1122 @@
         <v>187</v>
       </c>
       <c r="G70" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B71" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D44   Despesa com pessoal - Pró labore</v>
+        <f t="shared" ref="B71:B110" si="6">A71&amp;"   "&amp; C71&amp;" - "&amp;D71</f>
+        <v>D39   Despesa com serviços - Transporte</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E71" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G71" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="32" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B72" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D45   Despesa com pessoal - Salário</v>
+        <f t="shared" si="6"/>
+        <v>D40   Despesa com serviços - Hospedagem</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>311</v>
+        <v>69</v>
       </c>
       <c r="E72" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G72" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="32" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B73" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D46   Despesa com pessoal - 13º salário</v>
+        <f t="shared" si="6"/>
+        <v>D41   Despesa com serviços - Peças</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
       <c r="E73" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G73" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="32" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B74" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D47   Despesa com pessoal - Horas extras</v>
+        <f t="shared" si="6"/>
+        <v>D42   Despesa com serviços - Mão de obra</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="E74" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G74" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B75" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D48   Despesa com pessoal - Aviso prévio / Multa rescisória</v>
+        <f t="shared" si="6"/>
+        <v>D43   Despesa com serviços - Outras</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="E75" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G75" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="32" t="s">
-        <v>278</v>
+      <c r="A76" s="31" t="s">
+        <v>441</v>
       </c>
       <c r="B76" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D49   Despesa com pessoal - Assistência médica</v>
+        <f t="shared" si="6"/>
+        <v>D68   Despesa com serviços - Panasonic</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D76" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E76" s="29" t="s">
-        <v>187</v>
+        <v>45</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="G76" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="32" t="s">
-        <v>279</v>
+      <c r="A77" s="31" t="s">
+        <v>442</v>
       </c>
       <c r="B77" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D50   Despesa com pessoal - Transporte (VT)</v>
+        <f t="shared" si="6"/>
+        <v>D69   Despesa com serviços - Midea</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D77" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>187</v>
+        <v>45</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="G77" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="32" t="s">
-        <v>280</v>
+      <c r="A78" s="31" t="s">
+        <v>443</v>
       </c>
       <c r="B78" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D51   Despesa com pessoal - Alimentação (VR VA)</v>
+        <f t="shared" si="6"/>
+        <v>D71   Despesa com serviços - Spring</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D78" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="E78" s="29" t="s">
-        <v>187</v>
+        <v>45</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="G78" t="s">
-        <v>387</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="32" t="s">
-        <v>281</v>
+      <c r="A79" s="31" t="s">
+        <v>444</v>
       </c>
       <c r="B79" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D52   Despesa com pessoal - INSS</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E79" s="29" t="s">
-        <v>187</v>
+        <f t="shared" si="6"/>
+        <v>D72   Despesa com serviços - Fresnomaq</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="G79" t="s">
-        <v>388</v>
+        <v>322</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="32" t="s">
-        <v>282</v>
+      <c r="A80" s="31" t="s">
+        <v>445</v>
       </c>
       <c r="B80" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D53   Despesa com pessoal - FGTS</v>
+        <f t="shared" si="6"/>
+        <v>D73   Despesa com serviços - Elgin</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D80" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E80" s="29" t="s">
-        <v>187</v>
+        <v>45</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="G80" t="s">
-        <v>389</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="32" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B81" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D54   Despesa com pessoal - Acordos Trabalhistas</v>
+        <f t="shared" si="6"/>
+        <v>D44   Despesa com pessoal - Pró labore</v>
       </c>
       <c r="C81" s="28" t="s">
         <v>47</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="E81" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G81" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="32" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B82" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D55   Despesa com pessoal - Outras</v>
+        <f t="shared" si="6"/>
+        <v>D45   Despesa com pessoal - Salário</v>
       </c>
       <c r="C82" s="28" t="s">
         <v>47</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>181</v>
+        <v>311</v>
       </c>
       <c r="E82" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G82" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="32" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="B83" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D64   Despesa com pessoal - IRPF</v>
+        <f t="shared" si="6"/>
+        <v>D46   Despesa com pessoal - 13º salário</v>
       </c>
       <c r="C83" s="28" t="s">
         <v>47</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>417</v>
+        <v>84</v>
       </c>
       <c r="E83" s="29" t="s">
         <v>187</v>
+      </c>
+      <c r="G83" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="32" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B84" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D56   Despesas tributárias  - COFINS</v>
+        <f t="shared" si="6"/>
+        <v>D47   Despesa com pessoal - Horas extras</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
       <c r="E84" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G84" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="32" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B85" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D57   Despesas tributárias  - DAS</v>
+        <f t="shared" si="6"/>
+        <v>D48   Despesa com pessoal - Aviso prévio / Multa rescisória</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E85" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G85" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="32" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B86" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D58   Despesas tributárias  - ICMS</v>
+        <f t="shared" si="6"/>
+        <v>D49   Despesa com pessoal - Assistência médica</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="E86" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G86" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="32" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B87" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D59   Despesas tributárias  - IPVA</v>
+        <f t="shared" si="6"/>
+        <v>D50   Despesa com pessoal - Transporte (VT)</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>202</v>
+        <v>313</v>
       </c>
       <c r="E87" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G87" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="32" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B88" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D60   Despesas tributárias  - IRPJ</v>
+        <f t="shared" si="6"/>
+        <v>D51   Despesa com pessoal - Alimentação (VR VA)</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>203</v>
+        <v>312</v>
       </c>
       <c r="E88" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G88" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="32" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B89" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D61   Despesas tributárias  - ISS</v>
-      </c>
-      <c r="C89" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="D89" s="22" t="s">
-        <v>204</v>
+        <f t="shared" si="6"/>
+        <v>D52   Despesa com pessoal - INSS</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="E89" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G89" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="32" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B90" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">D62   Despesas tributárias  - PIS </v>
+        <f t="shared" si="6"/>
+        <v>D53   Despesa com pessoal - FGTS</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="E90" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G90" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B91" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D63   Despesas tributárias  - Outras</v>
+        <f t="shared" si="6"/>
+        <v>D54   Despesa com pessoal - Acordos Trabalhistas</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="E91" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G91" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="32" t="s">
-        <v>423</v>
+        <v>284</v>
       </c>
       <c r="B92" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>D66   Despesas tributárias  - Bombeiros</v>
+        <f t="shared" si="6"/>
+        <v>D55   Despesa com pessoal - Outras</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>419</v>
+        <v>181</v>
       </c>
       <c r="E92" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G92" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="32" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="B93" s="22" t="str">
-        <f t="shared" ref="B93" si="3">A93&amp;"   "&amp; C93&amp;" - "&amp;D93</f>
-        <v xml:space="preserve">D70   Outras Despesas  - Outras Despesas </v>
+        <f t="shared" ref="B93" si="7">A93&amp;"   "&amp; C93&amp;" - "&amp;D93</f>
+        <v>D64   Despesa com pessoal - IRPF</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>429</v>
-      </c>
-      <c r="D93" s="28" t="s">
-        <v>429</v>
+        <v>47</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>417</v>
       </c>
       <c r="E93" s="29" t="s">
         <v>187</v>
-      </c>
-      <c r="G93" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="B94" s="22" t="str">
-        <f t="shared" ref="B94" si="4">A94&amp;"   "&amp; C94&amp;" - "&amp;D94</f>
-        <v>D70   Outras Despesas  - Pgto fatura Cartão Credito</v>
+        <f t="shared" si="6"/>
+        <v>D74   Despesa com pessoal - CIEE (Estagiario)</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>429</v>
-      </c>
-      <c r="D94" s="28" t="s">
-        <v>432</v>
+        <v>47</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>446</v>
       </c>
       <c r="E94" s="29" t="s">
         <v>187</v>
-      </c>
-      <c r="G94" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="32" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B95" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>TC1   Transferência (Crédito) - Transferência entre contas</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="D95" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E95" s="30" t="s">
-        <v>180</v>
+        <f t="shared" si="6"/>
+        <v>D56   Despesas tributárias  - COFINS</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E95" s="29" t="s">
+        <v>187</v>
       </c>
       <c r="G95" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B96" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>TC2   Transferência (Crédito) - Aplicação</v>
-      </c>
-      <c r="C96" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="D96" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="E96" s="30" t="s">
-        <v>180</v>
+        <f t="shared" si="6"/>
+        <v>D57   Despesas tributárias  - DAS</v>
+      </c>
+      <c r="C96" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E96" s="29" t="s">
+        <v>187</v>
       </c>
       <c r="G96" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="32" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B97" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>TC3   Transferência (Crédito) - Saque reserva de capital</v>
-      </c>
-      <c r="C97" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="D97" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E97" s="30" t="s">
-        <v>180</v>
+        <f t="shared" si="6"/>
+        <v>D58   Despesas tributárias  - ICMS</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E97" s="29" t="s">
+        <v>187</v>
       </c>
       <c r="G97" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="32" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B98" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>TC4   Transferência (Crédito) - Saque reserva trabalhista</v>
-      </c>
-      <c r="C98" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="D98" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E98" s="30" t="s">
-        <v>180</v>
+        <f t="shared" si="6"/>
+        <v>D59   Despesas tributárias  - IPVA</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E98" s="29" t="s">
+        <v>187</v>
       </c>
       <c r="G98" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="32" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B99" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>TC5   Transferência (Crédito) - Transferência / Reembolso</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="D99" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="E99" s="30" t="s">
-        <v>180</v>
+        <f t="shared" si="6"/>
+        <v>D60   Despesas tributárias  - IRPJ</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="E99" s="29" t="s">
+        <v>187</v>
       </c>
       <c r="G99" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="32" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B100" s="22" t="str">
-        <f t="shared" ref="B100:B110" si="5">A100&amp;"   "&amp; C100&amp;" - "&amp;D100</f>
-        <v>TC6   Transferência (Crédito) - Outras</v>
-      </c>
-      <c r="C100" s="24" t="s">
-        <v>413</v>
+        <f t="shared" si="6"/>
+        <v>D61   Despesas tributárias  - ISS</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>199</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="E100" s="30" t="s">
-        <v>180</v>
+        <v>204</v>
+      </c>
+      <c r="E100" s="29" t="s">
+        <v>187</v>
       </c>
       <c r="G100" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="32" t="s">
-        <v>426</v>
+        <v>291</v>
       </c>
       <c r="B101" s="22" t="str">
-        <f t="shared" ref="B101" si="6">A101&amp;"   "&amp; C101&amp;" - "&amp;D101</f>
-        <v>TC7   Transferência (Crédito) - Saldo Inicial</v>
-      </c>
-      <c r="C101" s="24" t="s">
-        <v>413</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">D62   Despesas tributárias  - PIS </v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>199</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="E101" s="30" t="s">
-        <v>180</v>
+        <v>205</v>
+      </c>
+      <c r="E101" s="29" t="s">
+        <v>187</v>
       </c>
       <c r="G101" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="32" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B102" s="22" t="str">
-        <f t="shared" si="5"/>
-        <v>TD1   Transferência (Débito) - Pagamento do Cartão de Crédito</v>
-      </c>
-      <c r="C102" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="E102" s="30" t="s">
+        <f t="shared" si="6"/>
+        <v>D63   Despesas tributárias  - Outras</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E102" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G102" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="32" t="s">
-        <v>300</v>
+        <v>423</v>
       </c>
       <c r="B103" s="22" t="str">
-        <f t="shared" si="5"/>
-        <v>TD2   Transferência (Débito) - Transferência entre contas</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="D103" s="25" t="s">
-        <v>151</v>
+        <f t="shared" si="6"/>
+        <v>D66   Despesas tributárias  - Bombeiros</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>419</v>
       </c>
       <c r="E103" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G103" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="32" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="B104" s="22" t="str">
-        <f t="shared" si="5"/>
-        <v>TD3   Transferência (Débito) - Saque cartão de crédito</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="D104" s="25" t="s">
-        <v>156</v>
+        <f t="shared" ref="B104" si="8">A104&amp;"   "&amp; C104&amp;" - "&amp;D104</f>
+        <v xml:space="preserve">D70   Outras Despesas  - Outras Despesas </v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>429</v>
       </c>
       <c r="E104" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G104" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="32" t="s">
-        <v>302</v>
+        <v>430</v>
       </c>
       <c r="B105" s="22" t="str">
-        <f t="shared" si="5"/>
-        <v>TD4   Transferência (Débito) - Resgate de aplicação</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="D105" s="25" t="s">
-        <v>160</v>
+        <f t="shared" ref="B105" si="9">A105&amp;"   "&amp; C105&amp;" - "&amp;D105</f>
+        <v>D70   Outras Despesas  - Pgto fatura Cartão Credito</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>432</v>
       </c>
       <c r="E105" s="29" t="s">
         <v>187</v>
       </c>
       <c r="G105" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="32" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B106" s="22" t="str">
-        <f t="shared" si="5"/>
-        <v>TD5   Transferência (Débito) - Reserva de Capital</v>
+        <f t="shared" si="6"/>
+        <v>TC1   Transferência (Crédito) - Transferência entre contas</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="E106" s="29" t="s">
-        <v>187</v>
+        <v>151</v>
+      </c>
+      <c r="E106" s="30" t="s">
+        <v>180</v>
       </c>
       <c r="G106" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="32" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B107" s="22" t="str">
-        <f t="shared" si="5"/>
-        <v>TD6   Transferência (Débito) - Reserva trabalhista</v>
+        <f t="shared" si="6"/>
+        <v>TC2   Transferência (Crédito) - Aplicação</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="E107" s="29" t="s">
-        <v>187</v>
+        <v>158</v>
+      </c>
+      <c r="E107" s="30" t="s">
+        <v>180</v>
       </c>
       <c r="G107" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="32" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B108" s="22" t="str">
-        <f t="shared" si="5"/>
-        <v>TD7   Transferência (Débito) - Transferência / Reembolso</v>
+        <f t="shared" si="6"/>
+        <v>TC3   Transferência (Crédito) - Saque reserva de capital</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="E108" s="29" t="s">
-        <v>187</v>
+        <v>162</v>
+      </c>
+      <c r="E108" s="30" t="s">
+        <v>180</v>
       </c>
       <c r="G108" t="s">
-        <v>310</v>
+        <v>402</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="32" t="s">
-        <v>414</v>
+        <v>296</v>
       </c>
       <c r="B109" s="22" t="str">
-        <f t="shared" si="5"/>
-        <v>TD8   Transferência (Débito) - Outras</v>
+        <f t="shared" si="6"/>
+        <v>TC4   Transferência (Crédito) - Saque reserva trabalhista</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="D109" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="E109" s="29" t="s">
-        <v>187</v>
+        <v>413</v>
+      </c>
+      <c r="D109" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E109" s="30" t="s">
+        <v>180</v>
       </c>
       <c r="G109" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="B110" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>TC5   Transferência (Crédito) - Transferência / Reembolso</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="E110" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="G110" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="B111" s="22" t="str">
+        <f t="shared" ref="B111:B121" si="10">A111&amp;"   "&amp; C111&amp;" - "&amp;D111</f>
+        <v>TC6   Transferência (Crédito) - Outras</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="D111" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E111" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="G111" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="B112" s="22" t="str">
+        <f t="shared" ref="B112" si="11">A112&amp;"   "&amp; C112&amp;" - "&amp;D112</f>
+        <v>TC7   Transferência (Crédito) - Saldo Inicial</v>
+      </c>
+      <c r="C112" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="E112" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="G112" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="B113" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>TD1   Transferência (Débito) - Pagamento do Cartão de Crédito</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="D113" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E113" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="G113" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="B114" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>TD2   Transferência (Débito) - Transferência entre contas</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E114" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G114" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="B115" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>TD3   Transferência (Débito) - Saque cartão de crédito</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="D115" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E115" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G115" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="B116" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>TD4   Transferência (Débito) - Resgate de aplicação</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="D116" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E116" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G116" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="B117" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>TD5   Transferência (Débito) - Reserva de Capital</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="D117" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E117" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G117" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="B118" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>TD6   Transferência (Débito) - Reserva trabalhista</v>
+      </c>
+      <c r="C118" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="D118" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E118" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G118" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="B119" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>TD7   Transferência (Débito) - Transferência / Reembolso</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="D119" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="E119" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G119" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="B120" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>TD8   Transferência (Débito) - Outras</v>
+      </c>
+      <c r="C120" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="D120" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E120" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G120" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="32" t="s">
         <v>425</v>
       </c>
-      <c r="B110" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="B121" s="22" t="str">
+        <f t="shared" si="10"/>
         <v>TD9   Transferência (Débito) - Aplicação</v>
       </c>
-      <c r="C110" s="24" t="s">
+      <c r="C121" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="D110" s="25" t="s">
+      <c r="D121" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="E110" s="29" t="s">
+      <c r="E121" s="29" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E109" xr:uid="{EF5D6F37-0F71-4262-AC50-F774B9DA493A}"/>
-  <conditionalFormatting sqref="A111:A1048576 A1:A59 A61:A92 A102:A109 A95:A100">
+  <autoFilter ref="A1:E120" xr:uid="{EF5D6F37-0F71-4262-AC50-F774B9DA493A}"/>
+  <conditionalFormatting sqref="A122:A1048576 A1:A10 A66:A75 A113:A120 A106:A111 A16:A64 A81:A92 A94:A103">
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121">
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112">
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
+  <conditionalFormatting sqref="A76">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A110">
+  <conditionalFormatting sqref="A78">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
+  <conditionalFormatting sqref="A79">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
+  <conditionalFormatting sqref="A80">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A94">
+  <conditionalFormatting sqref="A93">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
